--- a/analisis/analisis_princess_arena_gnp_seguros.xlsx
+++ b/analisis/analisis_princess_arena_gnp_seguros.xlsx
@@ -2620,6 +2620,30 @@
       <c r="A2" t="str">
         <v>DEPARTAMENTO: AMA DE LLAVES</v>
       </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4655,6 +4679,30 @@
       <c r="A73" t="str">
         <v>DEPARTAMENTO: GERENCIA</v>
       </c>
+      <c r="B73" t="str">
+        <v/>
+      </c>
+      <c r="C73" t="str">
+        <v/>
+      </c>
+      <c r="D73" t="str">
+        <v/>
+      </c>
+      <c r="E73" t="str">
+        <v/>
+      </c>
+      <c r="F73" t="str">
+        <v/>
+      </c>
+      <c r="G73" t="str">
+        <v/>
+      </c>
+      <c r="H73" t="str">
+        <v/>
+      </c>
+      <c r="I73" t="str">
+        <v/>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -6806,6 +6854,30 @@
       <c r="A148" t="str">
         <v>DEPARTAMENTO: CONTABILIDAD</v>
       </c>
+      <c r="B148" t="str">
+        <v/>
+      </c>
+      <c r="C148" t="str">
+        <v/>
+      </c>
+      <c r="D148" t="str">
+        <v/>
+      </c>
+      <c r="E148" t="str">
+        <v/>
+      </c>
+      <c r="F148" t="str">
+        <v/>
+      </c>
+      <c r="G148" t="str">
+        <v/>
+      </c>
+      <c r="H148" t="str">
+        <v/>
+      </c>
+      <c r="I148" t="str">
+        <v/>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
@@ -8957,6 +9029,30 @@
       <c r="A223" t="str">
         <v>DEPARTAMENTO: VENTAS</v>
       </c>
+      <c r="B223" t="str">
+        <v/>
+      </c>
+      <c r="C223" t="str">
+        <v/>
+      </c>
+      <c r="D223" t="str">
+        <v/>
+      </c>
+      <c r="E223" t="str">
+        <v/>
+      </c>
+      <c r="F223" t="str">
+        <v/>
+      </c>
+      <c r="G223" t="str">
+        <v/>
+      </c>
+      <c r="H223" t="str">
+        <v/>
+      </c>
+      <c r="I223" t="str">
+        <v/>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
@@ -10992,6 +11088,30 @@
       <c r="A294" t="str">
         <v>DEPARTAMENTO: PREVENCIÓN DE RIESGOS</v>
       </c>
+      <c r="B294" t="str">
+        <v/>
+      </c>
+      <c r="C294" t="str">
+        <v/>
+      </c>
+      <c r="D294" t="str">
+        <v/>
+      </c>
+      <c r="E294" t="str">
+        <v/>
+      </c>
+      <c r="F294" t="str">
+        <v/>
+      </c>
+      <c r="G294" t="str">
+        <v/>
+      </c>
+      <c r="H294" t="str">
+        <v/>
+      </c>
+      <c r="I294" t="str">
+        <v/>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
@@ -13142,6 +13262,30 @@
     <row r="369">
       <c r="A369" t="str">
         <v>DEPARTAMENTO: MANTENIMIENTO</v>
+      </c>
+      <c r="B369" t="str">
+        <v/>
+      </c>
+      <c r="C369" t="str">
+        <v/>
+      </c>
+      <c r="D369" t="str">
+        <v/>
+      </c>
+      <c r="E369" t="str">
+        <v/>
+      </c>
+      <c r="F369" t="str">
+        <v/>
+      </c>
+      <c r="G369" t="str">
+        <v/>
+      </c>
+      <c r="H369" t="str">
+        <v/>
+      </c>
+      <c r="I369" t="str">
+        <v/>
       </c>
     </row>
     <row r="370">

--- a/analisis/analisis_princess_arena_gnp_seguros.xlsx
+++ b/analisis/analisis_princess_arena_gnp_seguros.xlsx
@@ -16052,7 +16052,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16064,7 +16064,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>GÉNERO</v>
+        <v>3. GÉNERO</v>
       </c>
       <c r="B1" t="str">
         <v/>
@@ -16119,7 +16119,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>EDAD</v>
+        <v>4. EDAD</v>
       </c>
       <c r="B6" t="str">
         <v/>
@@ -16229,7 +16229,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>ESTADO CIVIL</v>
+        <v>5. ESTADO CIVIL</v>
       </c>
       <c r="B16" t="str">
         <v/>
@@ -16295,7 +16295,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
+        <v>6. NIVEL DE ESTUDIOS</v>
       </c>
       <c r="B22" t="str">
         <v/>
@@ -16383,7 +16383,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>TIPO DE PUESTO</v>
+        <v>8. DEPARTAMENTO</v>
       </c>
       <c r="B30" t="str">
         <v/>
@@ -16405,135 +16405,344 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Anfitrión de Línea</v>
+        <v>Ama de Llaves</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C32" t="str">
-        <v>71.43%</v>
+        <v>4.76%</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Gerente/Director</v>
+        <v>Gerencia</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="str">
-        <v>9.52%</v>
+        <v>4.76%</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Supervisor/Jefe</v>
+        <v>Contabilidad</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C34" t="str">
-        <v>19.05%</v>
+        <v>28.57%</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v/>
-      </c>
-      <c r="B35" t="str">
-        <v/>
+        <v>Ventas</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
       </c>
       <c r="C35" t="str">
-        <v/>
+        <v>4.76%</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>TIEMPO EN PUESTO</v>
-      </c>
-      <c r="B36" t="str">
-        <v/>
+        <v>Prevención de Riesgos</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
       </c>
       <c r="C36" t="str">
-        <v/>
+        <v>52.38%</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B37" t="str">
-        <v>Cantidad</v>
+        <v>Mantenimiento</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
       </c>
       <c r="C37" t="str">
-        <v>Porcentaje</v>
+        <v>4.76%</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Menos de 6 meses</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v/>
       </c>
       <c r="C38" t="str">
-        <v>4.76%</v>
+        <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Entre 1 a 4 años</v>
-      </c>
-      <c r="B39">
-        <v>16</v>
+        <v>9. TIPO DE PUESTO</v>
+      </c>
+      <c r="B39" t="str">
+        <v/>
       </c>
       <c r="C39" t="str">
-        <v>76.19%</v>
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Entre 6 meses y 1 año</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
+        <v>Opción</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C40" t="str">
-        <v>14.29%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Entre 10 a 14 años</v>
+        <v>Anfitrión de Línea</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C41" t="str">
-        <v>4.76%</v>
+        <v>71.43%</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v/>
-      </c>
-      <c r="B42" t="str">
-        <v/>
+        <v>Gerente/Director</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
       </c>
       <c r="C42" t="str">
+        <v>9.52%</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Supervisor/Jefe</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="str">
+        <v>19.05%</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>12. TIEMPO EN PUESTO</v>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Menos de 6 meses</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="str">
+        <v>4.76%</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48" t="str">
+        <v>76.19%</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Entre 6 meses y 1 año</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="str">
+        <v>14.29%</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Entre 10 a 14 años</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="str">
+        <v>4.76%</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v/>
+      </c>
+      <c r="B51" t="str">
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
+      </c>
+      <c r="B52" t="str">
+        <v/>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Menos de 6 meses</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="str">
+        <v>4.76%</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Entre 10 a 14 años</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="str">
+        <v>14.29%</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Entre 5 a 9 años</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="str">
+        <v>4.76%</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="C57" t="str">
+        <v>52.38%</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Entre 15 a 19 años</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="str">
+        <v>9.52%</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Entre 6 meses y 1 año</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="str">
+        <v>9.52%</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Entre 20 a 24 años</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="str">
+        <v>4.76%</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v/>
+      </c>
+      <c r="B61" t="str">
+        <v/>
+      </c>
+      <c r="C61" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C61"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16556,7 +16765,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>GÉNERO</v>
+        <v>3. GÉNERO</v>
       </c>
       <c r="B2" t="str">
         <v/>
@@ -16600,7 +16809,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>EDAD</v>
+        <v>4. EDAD</v>
       </c>
       <c r="B6" t="str">
         <v/>
@@ -16644,7 +16853,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>ESTADO CIVIL</v>
+        <v>5. ESTADO CIVIL</v>
       </c>
       <c r="B10" t="str">
         <v/>
@@ -16688,7 +16897,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
+        <v>6. NIVEL DE ESTUDIOS</v>
       </c>
       <c r="B14" t="str">
         <v/>
@@ -16732,7 +16941,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>TIPO DE PUESTO</v>
+        <v>8. DEPARTAMENTO</v>
       </c>
       <c r="B18" t="str">
         <v/>
@@ -16754,7 +16963,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Anfitrión de Línea</v>
+        <v>Ama de Llaves</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -16776,7 +16985,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>TIEMPO EN PUESTO</v>
+        <v>9. TIPO DE PUESTO</v>
       </c>
       <c r="B22" t="str">
         <v/>
@@ -16798,7 +17007,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Menos de 6 meses</v>
+        <v>Anfitrión de Línea</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -16820,7 +17029,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v/>
+        <v>12. TIEMPO EN PUESTO</v>
       </c>
       <c r="B26" t="str">
         <v/>
@@ -16831,29 +17040,29 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>-------------------------</v>
+        <v>Opción</v>
       </c>
       <c r="B27" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C27" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v/>
-      </c>
-      <c r="B28" t="str">
-        <v/>
+        <v>Menos de 6 meses</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>DEPARTAMENTO: GERENCIA</v>
+        <v/>
       </c>
       <c r="B29" t="str">
         <v/>
@@ -16864,7 +17073,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>GÉNERO</v>
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
       </c>
       <c r="B30" t="str">
         <v/>
@@ -16886,7 +17095,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Masculino</v>
+        <v>Menos de 6 meses</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -16908,7 +17117,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>EDAD</v>
+        <v/>
       </c>
       <c r="B34" t="str">
         <v/>
@@ -16919,29 +17128,29 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Opción</v>
+        <v>-------------------------</v>
       </c>
       <c r="B35" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C35" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>30 - 34</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v/>
       </c>
       <c r="C36" t="str">
-        <v>100.00%</v>
+        <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v/>
+        <v>DEPARTAMENTO: GERENCIA</v>
       </c>
       <c r="B37" t="str">
         <v/>
@@ -16952,7 +17161,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>ESTADO CIVIL</v>
+        <v>3. GÉNERO</v>
       </c>
       <c r="B38" t="str">
         <v/>
@@ -16974,7 +17183,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Soltero</v>
+        <v>Masculino</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -16996,7 +17205,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
+        <v>4. EDAD</v>
       </c>
       <c r="B42" t="str">
         <v/>
@@ -17018,7 +17227,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Licenciatura terminada</v>
+        <v>30 - 34</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -17040,7 +17249,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>TIPO DE PUESTO</v>
+        <v>5. ESTADO CIVIL</v>
       </c>
       <c r="B46" t="str">
         <v/>
@@ -17062,7 +17271,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Gerente/Director</v>
+        <v>Soltero</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -17084,7 +17293,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>TIEMPO EN PUESTO</v>
+        <v>6. NIVEL DE ESTUDIOS</v>
       </c>
       <c r="B50" t="str">
         <v/>
@@ -17106,7 +17315,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Entre 1 a 4 años</v>
+        <v>Licenciatura terminada</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -17128,7 +17337,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v/>
+        <v>8. DEPARTAMENTO</v>
       </c>
       <c r="B54" t="str">
         <v/>
@@ -17139,29 +17348,29 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>-------------------------</v>
+        <v>Opción</v>
       </c>
       <c r="B55" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C55" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v/>
-      </c>
-      <c r="B56" t="str">
-        <v/>
+        <v>Gerencia</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
       </c>
       <c r="C56" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>DEPARTAMENTO: CONTABILIDAD</v>
+        <v/>
       </c>
       <c r="B57" t="str">
         <v/>
@@ -17172,7 +17381,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>GÉNERO</v>
+        <v>9. TIPO DE PUESTO</v>
       </c>
       <c r="B58" t="str">
         <v/>
@@ -17194,29 +17403,29 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Masculino</v>
+        <v>Gerente/Director</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C60" t="str">
-        <v>83.33%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Femenino</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B61" t="str">
+        <v/>
       </c>
       <c r="C61" t="str">
-        <v>16.67%</v>
+        <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v/>
+        <v>12. TIEMPO EN PUESTO</v>
       </c>
       <c r="B62" t="str">
         <v/>
@@ -17227,79 +17436,79 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>EDAD</v>
+        <v>Opción</v>
       </c>
       <c r="B63" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C63" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B64" t="str">
-        <v>Cantidad</v>
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
       </c>
       <c r="C64" t="str">
-        <v>Porcentaje</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>25 -29</v>
-      </c>
-      <c r="B65">
-        <v>2</v>
+        <v/>
+      </c>
+      <c r="B65" t="str">
+        <v/>
       </c>
       <c r="C65" t="str">
-        <v>33.33%</v>
+        <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>20 - 24</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
+      </c>
+      <c r="B66" t="str">
+        <v/>
       </c>
       <c r="C66" t="str">
-        <v>16.67%</v>
+        <v/>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>35 -39</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C67" t="str">
-        <v>16.67%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>40 - 44</v>
+        <v>Entre 10 a 14 años</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" t="str">
-        <v>16.67%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>30 - 34</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B69" t="str">
+        <v/>
       </c>
       <c r="C69" t="str">
-        <v>16.67%</v>
+        <v/>
       </c>
     </row>
     <row r="70">
@@ -17315,7 +17524,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>ESTADO CIVIL</v>
+        <v>-------------------------</v>
       </c>
       <c r="B71" t="str">
         <v/>
@@ -17326,150 +17535,150 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B72" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C72" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Soltero</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
+        <v>DEPARTAMENTO: CONTABILIDAD</v>
+      </c>
+      <c r="B73" t="str">
+        <v/>
       </c>
       <c r="C73" t="str">
-        <v>50.00%</v>
+        <v/>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Casado</v>
-      </c>
-      <c r="B74">
-        <v>2</v>
+        <v>3. GÉNERO</v>
+      </c>
+      <c r="B74" t="str">
+        <v/>
       </c>
       <c r="C74" t="str">
-        <v>33.33%</v>
+        <v/>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Unión libre</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C75" t="str">
-        <v>16.67%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v/>
-      </c>
-      <c r="B76" t="str">
-        <v/>
+        <v>Masculino</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
       </c>
       <c r="C76" t="str">
-        <v/>
+        <v>83.33%</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
-      </c>
-      <c r="B77" t="str">
-        <v/>
+        <v>Femenino</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
       </c>
       <c r="C77" t="str">
-        <v/>
+        <v>16.67%</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B78" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C78" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Licenciatura terminada</v>
-      </c>
-      <c r="B79">
-        <v>5</v>
+        <v>4. EDAD</v>
+      </c>
+      <c r="B79" t="str">
+        <v/>
       </c>
       <c r="C79" t="str">
-        <v>83.33%</v>
+        <v/>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Técnico Superior terminado</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C80" t="str">
-        <v>16.67%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v/>
-      </c>
-      <c r="B81" t="str">
-        <v/>
+        <v>25 -29</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
       </c>
       <c r="C81" t="str">
-        <v/>
+        <v>33.33%</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>TIPO DE PUESTO</v>
-      </c>
-      <c r="B82" t="str">
-        <v/>
+        <v>20 - 24</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
       </c>
       <c r="C82" t="str">
-        <v/>
+        <v>16.67%</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B83" t="str">
-        <v>Cantidad</v>
+        <v>35 -39</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
       </c>
       <c r="C83" t="str">
-        <v>Porcentaje</v>
+        <v>16.67%</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Anfitrión de Línea</v>
+        <v>40 - 44</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C84" t="str">
-        <v>66.67%</v>
+        <v>16.67%</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Gerente/Director</v>
+        <v>30 - 34</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -17480,18 +17689,18 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Supervisor/Jefe</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B86" t="str">
+        <v/>
       </c>
       <c r="C86" t="str">
-        <v>16.67%</v>
+        <v/>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v/>
+        <v>5. ESTADO CIVIL</v>
       </c>
       <c r="B87" t="str">
         <v/>
@@ -17502,62 +17711,62 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>TIEMPO EN PUESTO</v>
+        <v>Opción</v>
       </c>
       <c r="B88" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C88" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B89" t="str">
-        <v>Cantidad</v>
+        <v>Soltero</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
       </c>
       <c r="C89" t="str">
-        <v>Porcentaje</v>
+        <v>50.00%</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Entre 1 a 4 años</v>
+        <v>Casado</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="str">
-        <v>50.00%</v>
+        <v>33.33%</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Entre 6 meses y 1 año</v>
+        <v>Unión libre</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" t="str">
-        <v>33.33%</v>
+        <v>16.67%</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Entre 10 a 14 años</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B92" t="str">
+        <v/>
       </c>
       <c r="C92" t="str">
-        <v>16.67%</v>
+        <v/>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v/>
+        <v>6. NIVEL DE ESTUDIOS</v>
       </c>
       <c r="B93" t="str">
         <v/>
@@ -17568,40 +17777,40 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B94" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C94" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>-------------------------</v>
-      </c>
-      <c r="B95" t="str">
-        <v/>
+        <v>Licenciatura terminada</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
       </c>
       <c r="C95" t="str">
-        <v/>
+        <v>83.33%</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v/>
-      </c>
-      <c r="B96" t="str">
-        <v/>
+        <v>Técnico Superior terminado</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
       </c>
       <c r="C96" t="str">
-        <v/>
+        <v>16.67%</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>DEPARTAMENTO: VENTAS</v>
+        <v/>
       </c>
       <c r="B97" t="str">
         <v/>
@@ -17612,7 +17821,7 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>GÉNERO</v>
+        <v>8. DEPARTAMENTO</v>
       </c>
       <c r="B98" t="str">
         <v/>
@@ -17634,10 +17843,10 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Masculino</v>
+        <v>Contabilidad</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C100" t="str">
         <v>100.00%</v>
@@ -17656,7 +17865,7 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>EDAD</v>
+        <v>9. TIPO DE PUESTO</v>
       </c>
       <c r="B102" t="str">
         <v/>
@@ -17678,101 +17887,101 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>35 -39</v>
+        <v>Anfitrión de Línea</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C104" t="str">
-        <v>100.00%</v>
+        <v>66.67%</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v/>
-      </c>
-      <c r="B105" t="str">
-        <v/>
+        <v>Gerente/Director</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
       </c>
       <c r="C105" t="str">
-        <v/>
+        <v>16.67%</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>ESTADO CIVIL</v>
-      </c>
-      <c r="B106" t="str">
-        <v/>
+        <v>Supervisor/Jefe</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
       </c>
       <c r="C106" t="str">
-        <v/>
+        <v>16.67%</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B107" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C107" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Casado</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
+        <v>12. TIEMPO EN PUESTO</v>
+      </c>
+      <c r="B108" t="str">
+        <v/>
       </c>
       <c r="C108" t="str">
-        <v>100.00%</v>
+        <v/>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B109" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C109" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
-      </c>
-      <c r="B110" t="str">
-        <v/>
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
       </c>
       <c r="C110" t="str">
-        <v/>
+        <v>50.00%</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B111" t="str">
-        <v>Cantidad</v>
+        <v>Entre 6 meses y 1 año</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
       </c>
       <c r="C111" t="str">
-        <v>Porcentaje</v>
+        <v>33.33%</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Licenciatura terminada</v>
+        <v>Entre 10 a 14 años</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" t="str">
-        <v>100.00%</v>
+        <v>16.67%</v>
       </c>
     </row>
     <row r="113">
@@ -17788,7 +17997,7 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>TIPO DE PUESTO</v>
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
       </c>
       <c r="B114" t="str">
         <v/>
@@ -17810,57 +18019,57 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Supervisor/Jefe</v>
+        <v>Entre 5 a 9 años</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
       <c r="C116" t="str">
-        <v>100.00%</v>
+        <v>16.67%</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v/>
-      </c>
-      <c r="B117" t="str">
-        <v/>
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
       </c>
       <c r="C117" t="str">
-        <v/>
+        <v>16.67%</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>TIEMPO EN PUESTO</v>
-      </c>
-      <c r="B118" t="str">
-        <v/>
+        <v>Entre 6 meses y 1 año</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
       </c>
       <c r="C118" t="str">
-        <v/>
+        <v>33.33%</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B119" t="str">
-        <v>Cantidad</v>
+        <v>Entre 10 a 14 años</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
       </c>
       <c r="C119" t="str">
-        <v>Porcentaje</v>
+        <v>33.33%</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Entre 1 a 4 años</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B120" t="str">
+        <v/>
       </c>
       <c r="C120" t="str">
-        <v>100.00%</v>
+        <v/>
       </c>
     </row>
     <row r="121">
@@ -17876,7 +18085,7 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v/>
+        <v>-------------------------</v>
       </c>
       <c r="B122" t="str">
         <v/>
@@ -17887,7 +18096,7 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>-------------------------</v>
+        <v/>
       </c>
       <c r="B123" t="str">
         <v/>
@@ -17898,7 +18107,7 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v/>
+        <v>DEPARTAMENTO: VENTAS</v>
       </c>
       <c r="B124" t="str">
         <v/>
@@ -17909,7 +18118,7 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>DEPARTAMENTO: PREVENCIÓN DE RIESGOS</v>
+        <v>3. GÉNERO</v>
       </c>
       <c r="B125" t="str">
         <v/>
@@ -17920,156 +18129,156 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>GÉNERO</v>
+        <v>Opción</v>
       </c>
       <c r="B126" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C126" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B127" t="str">
-        <v>Cantidad</v>
+        <v>Masculino</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
       </c>
       <c r="C127" t="str">
-        <v>Porcentaje</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Masculino</v>
-      </c>
-      <c r="B128">
-        <v>9</v>
+        <v/>
+      </c>
+      <c r="B128" t="str">
+        <v/>
       </c>
       <c r="C128" t="str">
-        <v>81.82%</v>
+        <v/>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Femenino</v>
-      </c>
-      <c r="B129">
-        <v>2</v>
+        <v>4. EDAD</v>
+      </c>
+      <c r="B129" t="str">
+        <v/>
       </c>
       <c r="C129" t="str">
-        <v>18.18%</v>
+        <v/>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B130" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C130" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>EDAD</v>
-      </c>
-      <c r="B131" t="str">
-        <v/>
+        <v>35 -39</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
       </c>
       <c r="C131" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B132" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C132" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>35 -39</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
+        <v>5. ESTADO CIVIL</v>
+      </c>
+      <c r="B133" t="str">
+        <v/>
       </c>
       <c r="C133" t="str">
-        <v>9.09%</v>
+        <v/>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>20 - 24</v>
-      </c>
-      <c r="B134">
-        <v>2</v>
+        <v>Opción</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C134" t="str">
-        <v>18.18%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>25 -29</v>
+        <v>Casado</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C135" t="str">
-        <v>27.27%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>30 - 34</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B136" t="str">
+        <v/>
       </c>
       <c r="C136" t="str">
-        <v>9.09%</v>
+        <v/>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>18 - 19</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
+        <v>6. NIVEL DE ESTUDIOS</v>
+      </c>
+      <c r="B137" t="str">
+        <v/>
       </c>
       <c r="C137" t="str">
-        <v>9.09%</v>
+        <v/>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>50 -54</v>
-      </c>
-      <c r="B138">
-        <v>2</v>
+        <v>Opción</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C138" t="str">
-        <v>18.18%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>40 - 44</v>
+        <v>Licenciatura terminada</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
       <c r="C139" t="str">
-        <v>9.09%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="140">
@@ -18085,7 +18294,7 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>ESTADO CIVIL</v>
+        <v>8. DEPARTAMENTO</v>
       </c>
       <c r="B141" t="str">
         <v/>
@@ -18107,117 +18316,117 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Unión libre</v>
+        <v>Ventas</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C143" t="str">
-        <v>36.36%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Casado</v>
-      </c>
-      <c r="B144">
-        <v>4</v>
+        <v/>
+      </c>
+      <c r="B144" t="str">
+        <v/>
       </c>
       <c r="C144" t="str">
-        <v>36.36%</v>
+        <v/>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Soltero</v>
-      </c>
-      <c r="B145">
-        <v>3</v>
+        <v>9. TIPO DE PUESTO</v>
+      </c>
+      <c r="B145" t="str">
+        <v/>
       </c>
       <c r="C145" t="str">
-        <v>27.27%</v>
+        <v/>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B146" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C146" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
-      </c>
-      <c r="B147" t="str">
-        <v/>
+        <v>Supervisor/Jefe</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
       </c>
       <c r="C147" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B148" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C148" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Licenciatura incompleta</v>
-      </c>
-      <c r="B149">
-        <v>3</v>
+        <v>12. TIEMPO EN PUESTO</v>
+      </c>
+      <c r="B149" t="str">
+        <v/>
       </c>
       <c r="C149" t="str">
-        <v>27.27%</v>
+        <v/>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Preparatoria o Bachillerato terminado</v>
-      </c>
-      <c r="B150">
-        <v>6</v>
+        <v>Opción</v>
+      </c>
+      <c r="B150" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C150" t="str">
-        <v>54.55%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Secundaria incompleta</v>
+        <v>Entre 1 a 4 años</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
       <c r="C151" t="str">
-        <v>9.09%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Técnico Superior terminado</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B152" t="str">
+        <v/>
       </c>
       <c r="C152" t="str">
-        <v>9.09%</v>
+        <v/>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v/>
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
       </c>
       <c r="B153" t="str">
         <v/>
@@ -18228,51 +18437,51 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>TIPO DE PUESTO</v>
+        <v>Opción</v>
       </c>
       <c r="B154" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C154" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B155" t="str">
-        <v>Cantidad</v>
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
       </c>
       <c r="C155" t="str">
-        <v>Porcentaje</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Supervisor/Jefe</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B156" t="str">
+        <v/>
       </c>
       <c r="C156" t="str">
-        <v>9.09%</v>
+        <v/>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Anfitrión de Línea</v>
-      </c>
-      <c r="B157">
-        <v>10</v>
+        <v/>
+      </c>
+      <c r="B157" t="str">
+        <v/>
       </c>
       <c r="C157" t="str">
-        <v>90.91%</v>
+        <v/>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v/>
+        <v>-------------------------</v>
       </c>
       <c r="B158" t="str">
         <v/>
@@ -18283,7 +18492,7 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>TIEMPO EN PUESTO</v>
+        <v/>
       </c>
       <c r="B159" t="str">
         <v/>
@@ -18294,62 +18503,62 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Opción</v>
+        <v>DEPARTAMENTO: PREVENCIÓN DE RIESGOS</v>
       </c>
       <c r="B160" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C160" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Entre 1 a 4 años</v>
-      </c>
-      <c r="B161">
-        <v>10</v>
+        <v>3. GÉNERO</v>
+      </c>
+      <c r="B161" t="str">
+        <v/>
       </c>
       <c r="C161" t="str">
-        <v>90.91%</v>
+        <v/>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Entre 6 meses y 1 año</v>
-      </c>
-      <c r="B162">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B162" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C162" t="str">
-        <v>9.09%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v/>
-      </c>
-      <c r="B163" t="str">
-        <v/>
+        <v>Masculino</v>
+      </c>
+      <c r="B163">
+        <v>9</v>
       </c>
       <c r="C163" t="str">
-        <v/>
+        <v>81.82%</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v/>
-      </c>
-      <c r="B164" t="str">
-        <v/>
+        <v>Femenino</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
       </c>
       <c r="C164" t="str">
-        <v/>
+        <v>18.18%</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>-------------------------</v>
+        <v/>
       </c>
       <c r="B165" t="str">
         <v/>
@@ -18360,7 +18569,7 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v/>
+        <v>4. EDAD</v>
       </c>
       <c r="B166" t="str">
         <v/>
@@ -18371,90 +18580,90 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>DEPARTAMENTO: MANTENIMIENTO</v>
+        <v>Opción</v>
       </c>
       <c r="B167" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C167" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>GÉNERO</v>
-      </c>
-      <c r="B168" t="str">
-        <v/>
+        <v>35 -39</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
       </c>
       <c r="C168" t="str">
-        <v/>
+        <v>9.09%</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B169" t="str">
-        <v>Cantidad</v>
+        <v>20 - 24</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
       </c>
       <c r="C169" t="str">
-        <v>Porcentaje</v>
+        <v>18.18%</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Masculino</v>
+        <v>25 -29</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C170" t="str">
-        <v>100.00%</v>
+        <v>27.27%</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v/>
-      </c>
-      <c r="B171" t="str">
-        <v/>
+        <v>30 - 34</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
       </c>
       <c r="C171" t="str">
-        <v/>
+        <v>9.09%</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>EDAD</v>
-      </c>
-      <c r="B172" t="str">
-        <v/>
+        <v>18 - 19</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
       </c>
       <c r="C172" t="str">
-        <v/>
+        <v>9.09%</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B173" t="str">
-        <v>Cantidad</v>
+        <v>50 -54</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
       </c>
       <c r="C173" t="str">
-        <v>Porcentaje</v>
+        <v>18.18%</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>30 - 34</v>
+        <v>40 - 44</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174" t="str">
-        <v>100.00%</v>
+        <v>9.09%</v>
       </c>
     </row>
     <row r="175">
@@ -18470,7 +18679,7 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>ESTADO CIVIL</v>
+        <v>5. ESTADO CIVIL</v>
       </c>
       <c r="B176" t="str">
         <v/>
@@ -18492,117 +18701,117 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Casado</v>
+        <v>Unión libre</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C178" t="str">
-        <v>100.00%</v>
+        <v>36.36%</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v/>
-      </c>
-      <c r="B179" t="str">
-        <v/>
+        <v>Casado</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
       </c>
       <c r="C179" t="str">
-        <v/>
+        <v>36.36%</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
-      </c>
-      <c r="B180" t="str">
-        <v/>
+        <v>Soltero</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
       </c>
       <c r="C180" t="str">
-        <v/>
+        <v>27.27%</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B181" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C181" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Licenciatura terminada</v>
-      </c>
-      <c r="B182">
-        <v>1</v>
+        <v>6. NIVEL DE ESTUDIOS</v>
+      </c>
+      <c r="B182" t="str">
+        <v/>
       </c>
       <c r="C182" t="str">
-        <v>100.00%</v>
+        <v/>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B183" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C183" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>TIPO DE PUESTO</v>
-      </c>
-      <c r="B184" t="str">
-        <v/>
+        <v>Licenciatura incompleta</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
       </c>
       <c r="C184" t="str">
-        <v/>
+        <v>27.27%</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B185" t="str">
-        <v>Cantidad</v>
+        <v>Preparatoria o Bachillerato terminado</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
       </c>
       <c r="C185" t="str">
-        <v>Porcentaje</v>
+        <v>54.55%</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Supervisor/Jefe</v>
+        <v>Secundaria incompleta</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
       <c r="C186" t="str">
-        <v>100.00%</v>
+        <v>9.09%</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v/>
-      </c>
-      <c r="B187" t="str">
-        <v/>
+        <v>Técnico Superior terminado</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
       </c>
       <c r="C187" t="str">
-        <v/>
+        <v>9.09%</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>TIEMPO EN PUESTO</v>
+        <v/>
       </c>
       <c r="B188" t="str">
         <v/>
@@ -18613,35 +18822,35 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Opción</v>
+        <v>8. DEPARTAMENTO</v>
       </c>
       <c r="B189" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C189" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Entre 1 a 4 años</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B190" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C190" t="str">
-        <v>100.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v/>
-      </c>
-      <c r="B191" t="str">
-        <v/>
+        <v>Prevención de Riesgos</v>
+      </c>
+      <c r="B191">
+        <v>11</v>
       </c>
       <c r="C191" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="192">
@@ -18657,7 +18866,7 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>-------------------------</v>
+        <v>9. TIPO DE PUESTO</v>
       </c>
       <c r="B193" t="str">
         <v/>
@@ -18668,18 +18877,601 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B194" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C194" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Supervisor/Jefe</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195" t="str">
+        <v>9.09%</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Anfitrión de Línea</v>
+      </c>
+      <c r="B196">
+        <v>10</v>
+      </c>
+      <c r="C196" t="str">
+        <v>90.91%</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v/>
+      </c>
+      <c r="B197" t="str">
+        <v/>
+      </c>
+      <c r="C197" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>12. TIEMPO EN PUESTO</v>
+      </c>
+      <c r="B198" t="str">
+        <v/>
+      </c>
+      <c r="C198" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B199" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C199" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B200">
+        <v>10</v>
+      </c>
+      <c r="C200" t="str">
+        <v>90.91%</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Entre 6 meses y 1 año</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201" t="str">
+        <v>9.09%</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v/>
+      </c>
+      <c r="B202" t="str">
+        <v/>
+      </c>
+      <c r="C202" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
+      </c>
+      <c r="B203" t="str">
+        <v/>
+      </c>
+      <c r="C203" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B204" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C204" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Entre 15 a 19 años</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205" t="str">
+        <v>9.09%</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B206">
+        <v>9</v>
+      </c>
+      <c r="C206" t="str">
+        <v>81.82%</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Entre 20 a 24 años</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207" t="str">
+        <v>9.09%</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v/>
+      </c>
+      <c r="B208" t="str">
+        <v/>
+      </c>
+      <c r="C208" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v/>
+      </c>
+      <c r="B209" t="str">
+        <v/>
+      </c>
+      <c r="C209" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>-------------------------</v>
+      </c>
+      <c r="B210" t="str">
+        <v/>
+      </c>
+      <c r="C210" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v/>
+      </c>
+      <c r="B211" t="str">
+        <v/>
+      </c>
+      <c r="C211" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>DEPARTAMENTO: MANTENIMIENTO</v>
+      </c>
+      <c r="B212" t="str">
+        <v/>
+      </c>
+      <c r="C212" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>3. GÉNERO</v>
+      </c>
+      <c r="B213" t="str">
+        <v/>
+      </c>
+      <c r="C213" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B214" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C214" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Masculino</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215" t="str">
+        <v>100.00%</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v/>
+      </c>
+      <c r="B216" t="str">
+        <v/>
+      </c>
+      <c r="C216" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>4. EDAD</v>
+      </c>
+      <c r="B217" t="str">
+        <v/>
+      </c>
+      <c r="C217" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B218" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C218" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>30 - 34</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" t="str">
+        <v>100.00%</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v/>
+      </c>
+      <c r="B220" t="str">
+        <v/>
+      </c>
+      <c r="C220" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>5. ESTADO CIVIL</v>
+      </c>
+      <c r="B221" t="str">
+        <v/>
+      </c>
+      <c r="C221" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B222" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C222" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Casado</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" t="str">
+        <v>100.00%</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v/>
+      </c>
+      <c r="B224" t="str">
+        <v/>
+      </c>
+      <c r="C224" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>6. NIVEL DE ESTUDIOS</v>
+      </c>
+      <c r="B225" t="str">
+        <v/>
+      </c>
+      <c r="C225" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B226" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C226" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Licenciatura terminada</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" t="str">
+        <v>100.00%</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v/>
+      </c>
+      <c r="B228" t="str">
+        <v/>
+      </c>
+      <c r="C228" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>8. DEPARTAMENTO</v>
+      </c>
+      <c r="B229" t="str">
+        <v/>
+      </c>
+      <c r="C229" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B230" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C230" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Mantenimiento</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="str">
+        <v>100.00%</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v/>
+      </c>
+      <c r="B232" t="str">
+        <v/>
+      </c>
+      <c r="C232" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>9. TIPO DE PUESTO</v>
+      </c>
+      <c r="B233" t="str">
+        <v/>
+      </c>
+      <c r="C233" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B234" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C234" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Supervisor/Jefe</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235" t="str">
+        <v>100.00%</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v/>
+      </c>
+      <c r="B236" t="str">
+        <v/>
+      </c>
+      <c r="C236" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>12. TIEMPO EN PUESTO</v>
+      </c>
+      <c r="B237" t="str">
+        <v/>
+      </c>
+      <c r="C237" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B238" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C238" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239" t="str">
+        <v>100.00%</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v/>
+      </c>
+      <c r="B240" t="str">
+        <v/>
+      </c>
+      <c r="C240" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
+      </c>
+      <c r="B241" t="str">
+        <v/>
+      </c>
+      <c r="C241" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B242" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C242" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Entre 15 a 19 años</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243" t="str">
+        <v>100.00%</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v/>
+      </c>
+      <c r="B244" t="str">
+        <v/>
+      </c>
+      <c r="C244" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v/>
+      </c>
+      <c r="B245" t="str">
+        <v/>
+      </c>
+      <c r="C245" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>-------------------------</v>
+      </c>
+      <c r="B246" t="str">
+        <v/>
+      </c>
+      <c r="C246" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v/>
+      </c>
+      <c r="B247" t="str">
+        <v/>
+      </c>
+      <c r="C247" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C194"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C247"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/analisis/analisis_princess_arena_gnp_seguros.xlsx
+++ b/analisis/analisis_princess_arena_gnp_seguros.xlsx
@@ -5025,7 +5025,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>DEPARTAMENTO: GERENCIA</v>
+        <v>DEPARTAMENTO: COMITÉ DE OPERACIONES</v>
       </c>
       <c r="B81" t="str">
         <v/>
@@ -16822,7 +16822,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Gerencia</v>
+        <v>Comité de OPERACIONES</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -17556,7 +17556,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>DEPARTAMENTO: GERENCIA</v>
+        <v>DEPARTAMENTO: COMITÉ DE OPERACIONES</v>
       </c>
       <c r="B37" t="str">
         <v/>
@@ -17765,7 +17765,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Gerencia</v>
+        <v>Comité de OPERACIONES</v>
       </c>
       <c r="B56">
         <v>1</v>

--- a/analisis/analisis_princess_arena_gnp_seguros.xlsx
+++ b/analisis/analisis_princess_arena_gnp_seguros.xlsx
@@ -14189,7 +14189,7 @@
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>DEPARTAMENTO: MANTENIMIENTO</v>
+        <v>DEPARTAMENTO: MANTENIMIENTO Y JARDINERÍA</v>
       </c>
       <c r="B397" t="str">
         <v/>
@@ -16866,7 +16866,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Mantenimiento</v>
+        <v>Mantenimiento y Jardinería</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -19481,7 +19481,7 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>DEPARTAMENTO: MANTENIMIENTO</v>
+        <v>DEPARTAMENTO: MANTENIMIENTO Y JARDINERÍA</v>
       </c>
       <c r="B212" t="str">
         <v/>
@@ -19690,7 +19690,7 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Mantenimiento</v>
+        <v>Mantenimiento y Jardinería</v>
       </c>
       <c r="B231">
         <v>1</v>

--- a/analisis/analisis_princess_arena_gnp_seguros.xlsx
+++ b/analisis/analisis_princess_arena_gnp_seguros.xlsx
@@ -5025,7 +5025,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>DEPARTAMENTO: COMITÉ DE OPERACIONES</v>
+        <v>DEPARTAMENTO: GERENCIA</v>
       </c>
       <c r="B81" t="str">
         <v/>
@@ -14189,7 +14189,7 @@
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>DEPARTAMENTO: MANTENIMIENTO Y JARDINERÍA</v>
+        <v>DEPARTAMENTO: MANTENIMIENTO</v>
       </c>
       <c r="B397" t="str">
         <v/>
@@ -16822,7 +16822,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Comité de OPERACIONES</v>
+        <v>Gerencia</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -16866,7 +16866,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Mantenimiento y Jardinería</v>
+        <v>Mantenimiento</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -17556,7 +17556,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>DEPARTAMENTO: COMITÉ DE OPERACIONES</v>
+        <v>DEPARTAMENTO: GERENCIA</v>
       </c>
       <c r="B37" t="str">
         <v/>
@@ -17765,7 +17765,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Comité de OPERACIONES</v>
+        <v>Gerencia</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -19481,7 +19481,7 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>DEPARTAMENTO: MANTENIMIENTO Y JARDINERÍA</v>
+        <v>DEPARTAMENTO: MANTENIMIENTO</v>
       </c>
       <c r="B212" t="str">
         <v/>
@@ -19690,7 +19690,7 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Mantenimiento y Jardinería</v>
+        <v>Mantenimiento</v>
       </c>
       <c r="B231">
         <v>1</v>
